--- a/Konkurenz.xlsx
+++ b/Konkurenz.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12345" xr2:uid="{B97CBF9B-F313-468A-852C-0872421AD07E}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12345" xr2:uid="{B97CBF9B-F313-468A-852C-0872421AD07E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>KI für jedermann</t>
   </si>
@@ -424,7 +424,7 @@
   <dimension ref="B2:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +497,9 @@
       </c>
       <c r="C6" t="s">
         <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>6</v>
